--- a/data/summary_22071411.xlsx
+++ b/data/summary_22071411.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,313 +406,349 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>34.0596685082873</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>983.4878453038674</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.1065148760330579</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.01961818181818182</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.037113833412303</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.0001319288850415144</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>32.85690607734807</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.831491712707183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>34.40718232044199</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>983.3988950276242</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3798206611570248</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3501776859504132</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.41697800310336</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0001400331848757562</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>31.81436464088398</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>9.758011049723757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>34.61933701657458</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>983.3314917127071</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2481917355371901</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1968462809917355</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.725103961799992</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.0001903754336921156</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>30.54475138121547</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9.184530386740331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>34.03701657458564</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>983.2895027624309</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.4835140495867769</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.472799173553719</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3.041811445374768</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-2.846018345192747e-018</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30.1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.933149171270718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>34.06132596685083</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>983.2707182320442</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.381499173553719</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.3408247933884298</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.488510248695713</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.0001526694237626951</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>30.36519337016575</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6.322099447513812</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>33.53093922651934</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>983.207182320442</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.244803305785124</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.1997413223140496</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.731010423279693</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.0001585272647056786</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>29.77016574585635</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10.76077348066298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>33.18950276243094</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>983.1049723756906</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3295371900826447</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2816322314049587</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.871381393720343</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0001345420121300555</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>29.41546961325967</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.651381215469614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>33.17900552486188</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>983.0403314917127</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.3577826446280992</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.283900826446281</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.49509667002542</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.0001160718360026399</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>29.5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7.770718232044199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>35.07237569060774</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>982.9160220994475</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.1518669421487603</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.1335834710743802</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.9642300015794753</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.0001348884489000655</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30.11491712707182</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.050276243093923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>38.06408839779006</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>982.8342541436464</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3521760330578512</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2745247933884298</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.523603263839474</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0003821149115425914</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>30.77955801104972</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6.705524861878454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>39.3828729281768</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>982.7657458563535</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3313404958677686</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3485206611570248</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.765733236645264</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0003114072379234137</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>31.95082872928177</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4.538674033149172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>39.83687150837989</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>982.664245810056</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.7095126050420169</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.4813546218487395</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5.31040926862967</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.0003825860278230456</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>32.13687150837989</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7.744692737430168</v>
       </c>
     </row>
